--- a/biology/Zoologie/Alcin_des_chauves-souris/Alcin_des_chauves-souris.xlsx
+++ b/biology/Zoologie/Alcin_des_chauves-souris/Alcin_des_chauves-souris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macheiramphus alcinus
 L'Alcin des chauves-souris (Macheiramphus alcinus), anciennement Milan des chauves-souris, est une espèce de rapaces diurnes de la famille des Accipitridae. Presque nocturne, ce rapace, à la tombée de la nuit part chasser devant les grottes d'où jaillissent les chauves-souris. 
@@ -513,7 +525,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe trois sous-espèces :
 Macheiramphus alcinus alcinus Bonaparte  1850 ;
@@ -546,7 +560,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste des espèces d'oiseaux de Madagascar</t>
         </is>
